--- a/data/kbvreport_export/faktenblatttabellen_2021-07-11.xlsx
+++ b/data/kbvreport_export/faktenblatttabellen_2021-07-11.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="324" uniqueCount="324">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="325" uniqueCount="325">
   <si>
     <t xml:space="preserve">Geimpfte Personen</t>
   </si>
@@ -31,7 +31,7 @@
     <t xml:space="preserve">Vorwoche</t>
   </si>
   <si>
-    <t xml:space="preserve">Stand 13.7.</t>
+    <t xml:space="preserve">Stand 14.7.</t>
   </si>
   <si>
     <t xml:space="preserve">Anteil_Veraenderung</t>
@@ -46,37 +46,37 @@
     <t xml:space="preserve">Gesamt</t>
   </si>
   <si>
-    <t xml:space="preserve">47213139 (56,8 %)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">48799636 (58,7 %)</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 1,9 PP</t>
+    <t xml:space="preserve">47505270 (57,1 %)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">49007589 (58,9 %)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 1,8 PP</t>
   </si>
   <si>
     <t xml:space="preserve">Nicht vollst. geimpft</t>
   </si>
   <si>
-    <t xml:space="preserve">14517136 (17,5 %)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13023399 (15,7 %)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-1,8 PP</t>
+    <t xml:space="preserve">14302749 (17,2 %)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12657108 (15,2 %)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-2,0 PP</t>
   </si>
   <si>
     <t xml:space="preserve">Vollst. geimpft</t>
   </si>
   <si>
-    <t xml:space="preserve">32696003 (39,3 %)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">35776237 (43,0 %)</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 3,7 PP</t>
+    <t xml:space="preserve">33202521 (39,9 %)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">36350481 (43,7 %)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 3,8 PP</t>
   </si>
   <si>
     <t xml:space="preserve">Impffortschritt</t>
@@ -97,34 +97,34 @@
     <t xml:space="preserve">   NA %</t>
   </si>
   <si>
-    <t xml:space="preserve">5001045</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4412378</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-11,8 %</t>
+    <t xml:space="preserve">5003916</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4420514</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-11,7 %</t>
   </si>
   <si>
     <t xml:space="preserve">davon in Impfzentren</t>
   </si>
   <si>
-    <t xml:space="preserve">2597379 ( 51,9 %)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2169457 ( 49,2 %)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-16,5 %</t>
+    <t xml:space="preserve">2600250 ( 52 %)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2177593 ( 49,3 %)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-16,3 %</t>
   </si>
   <si>
     <t xml:space="preserve">davon in ärztl. Praxen</t>
   </si>
   <si>
-    <t xml:space="preserve">2403666 ( 48,1 %)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2242921 ( 50,8 %)</t>
+    <t xml:space="preserve">2403666 ( 48 %)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2242921 ( 50,7 %)</t>
   </si>
   <si>
     <t xml:space="preserve"> -6,7 %</t>
@@ -148,142 +148,145 @@
     <t xml:space="preserve">7-Tage-Inzidenz 60+</t>
   </si>
   <si>
-    <t xml:space="preserve">58,7</t>
-  </si>
-  <si>
-    <t xml:space="preserve">43,0</t>
+    <t xml:space="preserve">58,9</t>
+  </si>
+  <si>
+    <t xml:space="preserve">43,7</t>
   </si>
   <si>
     <t xml:space="preserve">Baden-Württemberg</t>
   </si>
   <si>
-    <t xml:space="preserve">57,4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">42,6</t>
+    <t xml:space="preserve">57,6</t>
+  </si>
+  <si>
+    <t xml:space="preserve">43,3</t>
   </si>
   <si>
     <t xml:space="preserve">Bayern</t>
   </si>
   <si>
-    <t xml:space="preserve">56,7</t>
+    <t xml:space="preserve">57,0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">42,1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Berlin</t>
+  </si>
+  <si>
+    <t xml:space="preserve">58,0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">43,1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Brandenburg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">54,2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">40,0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bremen</t>
+  </si>
+  <si>
+    <t xml:space="preserve">68,1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">46,8</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hamburg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">59,5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">41,7</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hessen</t>
+  </si>
+  <si>
+    <t xml:space="preserve">42,8</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mecklenburg-Vorpommern</t>
+  </si>
+  <si>
+    <t xml:space="preserve">57,8</t>
+  </si>
+  <si>
+    <t xml:space="preserve">45,1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Niedersachsen</t>
+  </si>
+  <si>
+    <t xml:space="preserve">61,2</t>
   </si>
   <si>
     <t xml:space="preserve">41,5</t>
   </si>
   <si>
-    <t xml:space="preserve">Berlin</t>
-  </si>
-  <si>
-    <t xml:space="preserve">57,8</t>
-  </si>
-  <si>
-    <t xml:space="preserve">42,3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Brandenburg</t>
-  </si>
-  <si>
-    <t xml:space="preserve">54,0</t>
-  </si>
-  <si>
-    <t xml:space="preserve">39,2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Bremen</t>
-  </si>
-  <si>
-    <t xml:space="preserve">67,8</t>
-  </si>
-  <si>
-    <t xml:space="preserve">45,7</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Hamburg</t>
-  </si>
-  <si>
-    <t xml:space="preserve">59,0</t>
-  </si>
-  <si>
-    <t xml:space="preserve">41,3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Hessen</t>
-  </si>
-  <si>
-    <t xml:space="preserve">57,7</t>
+    <t xml:space="preserve">Nordrhein-Westfalen</t>
+  </si>
+  <si>
+    <t xml:space="preserve">62,1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">47,0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rheinland-Pfalz</t>
+  </si>
+  <si>
+    <t xml:space="preserve">59,9</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Saarland</t>
+  </si>
+  <si>
+    <t xml:space="preserve">63,7</t>
+  </si>
+  <si>
+    <t xml:space="preserve">47,9</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sachsen</t>
+  </si>
+  <si>
+    <t xml:space="preserve">50,1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">40,6</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sachsen-Anhalt</t>
+  </si>
+  <si>
+    <t xml:space="preserve">55,0</t>
   </si>
   <si>
     <t xml:space="preserve">42,0</t>
   </si>
   <si>
-    <t xml:space="preserve">Mecklenburg-Vorpommern</t>
-  </si>
-  <si>
-    <t xml:space="preserve">44,6</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Niedersachsen</t>
-  </si>
-  <si>
-    <t xml:space="preserve">60,9</t>
-  </si>
-  <si>
-    <t xml:space="preserve">40,8</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Nordrhein-Westfalen</t>
-  </si>
-  <si>
-    <t xml:space="preserve">61,8</t>
-  </si>
-  <si>
-    <t xml:space="preserve">46,3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Rheinland-Pfalz</t>
-  </si>
-  <si>
-    <t xml:space="preserve">59,6</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Saarland</t>
-  </si>
-  <si>
-    <t xml:space="preserve">63,3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">47,2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sachsen</t>
-  </si>
-  <si>
-    <t xml:space="preserve">49,9</t>
-  </si>
-  <si>
-    <t xml:space="preserve">40,0</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sachsen-Anhalt</t>
-  </si>
-  <si>
-    <t xml:space="preserve">54,7</t>
-  </si>
-  <si>
     <t xml:space="preserve">Schleswig-Holstein</t>
   </si>
   <si>
-    <t xml:space="preserve">62,1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">44,7</t>
+    <t xml:space="preserve">62,3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">45,5</t>
   </si>
   <si>
     <t xml:space="preserve">Thüringen</t>
   </si>
   <si>
-    <t xml:space="preserve">53,6</t>
+    <t xml:space="preserve">53,7</t>
   </si>
   <si>
     <t xml:space="preserve">Impfstoffdosen</t>
@@ -295,28 +298,28 @@
     <t xml:space="preserve">Biontech/Pfizer</t>
   </si>
   <si>
-    <t xml:space="preserve">57175595 (73,4 %)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">60708220 (73,6 %)</t>
+    <t xml:space="preserve">57787506 (73,5 %)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">61338428 (73,7 %)</t>
   </si>
   <si>
     <t xml:space="preserve">Erstimpfungen</t>
   </si>
   <si>
-    <t xml:space="preserve">32248146</t>
-  </si>
-  <si>
-    <t xml:space="preserve">33525199</t>
+    <t xml:space="preserve">32489931</t>
+  </si>
+  <si>
+    <t xml:space="preserve">33684288</t>
   </si>
   <si>
     <t xml:space="preserve">Zweitimpfungen</t>
   </si>
   <si>
-    <t xml:space="preserve">24927449</t>
-  </si>
-  <si>
-    <t xml:space="preserve">27183021</t>
+    <t xml:space="preserve">25297575</t>
+  </si>
+  <si>
+    <t xml:space="preserve">27654140</t>
   </si>
   <si>
     <t xml:space="preserve">geliefert</t>
@@ -331,22 +334,22 @@
     <t xml:space="preserve">Moderna</t>
   </si>
   <si>
-    <t xml:space="preserve">6878939 ( 8,8 %)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7530271 ( 9,1 %)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3833985</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3994879</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3044954</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3535392</t>
+    <t xml:space="preserve">6977663 ( 8,9 %)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7608142 ( 9,1 %)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3859350</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4021098</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3118313</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3587044</t>
   </si>
   <si>
     <t xml:space="preserve">8517280</t>
@@ -355,22 +358,22 @@
     <t xml:space="preserve">AstraZeneca</t>
   </si>
   <si>
-    <t xml:space="preserve">11821152 (15,2 %)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12083880 (14,7 %)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9114280</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9152807</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2706872</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2931073</t>
+    <t xml:space="preserve">11872824 (15,1 %)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12120000 (14,6 %)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9121090</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9156453</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2751734</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2963547</t>
   </si>
   <si>
     <t xml:space="preserve">18172178</t>
@@ -379,10 +382,10 @@
     <t xml:space="preserve">Johnson&amp;Johnson</t>
   </si>
   <si>
-    <t xml:space="preserve">2016728 ( 2,6 %)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2126751 ( 2,6 %)</t>
+    <t xml:space="preserve">2034899 ( 2,6 %)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2145750 ( 2,6 %)</t>
   </si>
   <si>
     <t xml:space="preserve">3851230</t>
@@ -1412,13 +1415,13 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="B1" t="s">
         <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="D1" t="s">
         <v>20</v>
@@ -1426,44 +1429,44 @@
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="B2" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="C2" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="D2" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="B3" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="C3" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="D3" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="B4" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="C4" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="D4" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
     </row>
     <row r="5">
@@ -1471,18 +1474,18 @@
         <v>6</v>
       </c>
       <c r="B5" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="C5" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="D5" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="B6"/>
       <c r="C6"/>
@@ -1490,44 +1493,44 @@
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="B7" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="C7" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="D7" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="B8" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="C8" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="D8" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="B9" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="C9" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="D9" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
     </row>
     <row r="10">
@@ -1535,13 +1538,13 @@
         <v>6</v>
       </c>
       <c r="B10" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="C10" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="D10" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
     </row>
   </sheetData>
@@ -1563,13 +1566,13 @@
         <v>35</v>
       </c>
       <c r="B1" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="C1" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="D1" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="E1" t="s">
         <v>40</v>
@@ -1578,7 +1581,7 @@
         <v>39</v>
       </c>
       <c r="G1" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
     </row>
     <row r="2">
@@ -1586,13 +1589,13 @@
         <v>6</v>
       </c>
       <c r="B2" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="C2" t="n">
         <v>118</v>
       </c>
       <c r="D2" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="E2" t="n">
         <v>2</v>
@@ -1601,7 +1604,7 @@
         <v>7</v>
       </c>
       <c r="G2" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
     </row>
     <row r="3">
@@ -1609,13 +1612,13 @@
         <v>43</v>
       </c>
       <c r="B3" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="C3" t="n">
         <v>111</v>
       </c>
       <c r="D3" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="E3" t="n">
         <v>3</v>
@@ -1624,7 +1627,7 @@
         <v>7</v>
       </c>
       <c r="G3" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
     </row>
     <row r="4">
@@ -1632,13 +1635,13 @@
         <v>46</v>
       </c>
       <c r="B4" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="C4" t="n">
         <v>115</v>
       </c>
       <c r="D4" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="E4" t="n">
         <v>2</v>
@@ -1647,7 +1650,7 @@
         <v>7</v>
       </c>
       <c r="G4" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
     </row>
     <row r="5">
@@ -1655,13 +1658,13 @@
         <v>49</v>
       </c>
       <c r="B5" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="C5" t="n">
         <v>111</v>
       </c>
       <c r="D5" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="E5" t="n">
         <v>2</v>
@@ -1670,7 +1673,7 @@
         <v>8</v>
       </c>
       <c r="G5" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
     </row>
     <row r="6">
@@ -1678,13 +1681,13 @@
         <v>52</v>
       </c>
       <c r="B6" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="C6" t="n">
         <v>130</v>
       </c>
       <c r="D6" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="E6" t="n">
         <v>1</v>
@@ -1693,7 +1696,7 @@
         <v>4</v>
       </c>
       <c r="G6" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
     </row>
     <row r="7">
@@ -1701,13 +1704,13 @@
         <v>55</v>
       </c>
       <c r="B7" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="C7" t="n">
         <v>77</v>
       </c>
       <c r="D7" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="E7" t="n">
         <v>4</v>
@@ -1716,7 +1719,7 @@
         <v>10</v>
       </c>
       <c r="G7" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
     </row>
     <row r="8">
@@ -1724,13 +1727,13 @@
         <v>58</v>
       </c>
       <c r="B8" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="C8" t="n">
         <v>114</v>
       </c>
       <c r="D8" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="E8" t="n">
         <v>1</v>
@@ -1739,7 +1742,7 @@
         <v>12</v>
       </c>
       <c r="G8" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
     </row>
     <row r="9">
@@ -1747,13 +1750,13 @@
         <v>61</v>
       </c>
       <c r="B9" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="C9" t="n">
         <v>108</v>
       </c>
       <c r="D9" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="E9" t="n">
         <v>2</v>
@@ -1762,19 +1765,19 @@
         <v>10</v>
       </c>
       <c r="G9" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B10" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="C10"/>
       <c r="D10" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="E10" t="n">
         <v>0</v>
@@ -1783,7 +1786,7 @@
         <v>2</v>
       </c>
       <c r="G10" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
     </row>
     <row r="11">
@@ -1791,13 +1794,13 @@
         <v>66</v>
       </c>
       <c r="B11" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="C11" t="n">
         <v>114</v>
       </c>
       <c r="D11" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="E11" t="n">
         <v>1</v>
@@ -1806,7 +1809,7 @@
         <v>6</v>
       </c>
       <c r="G11" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
     </row>
     <row r="12">
@@ -1814,13 +1817,13 @@
         <v>69</v>
       </c>
       <c r="B12" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="C12" t="n">
         <v>116</v>
       </c>
       <c r="D12" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="E12" t="n">
         <v>2</v>
@@ -1829,7 +1832,7 @@
         <v>7</v>
       </c>
       <c r="G12" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
     </row>
     <row r="13">
@@ -1837,13 +1840,13 @@
         <v>72</v>
       </c>
       <c r="B13" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="C13" t="n">
         <v>117</v>
       </c>
       <c r="D13" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="E13" t="n">
         <v>2</v>
@@ -1852,7 +1855,7 @@
         <v>7</v>
       </c>
       <c r="G13" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
     </row>
     <row r="14">
@@ -1860,13 +1863,13 @@
         <v>74</v>
       </c>
       <c r="B14" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="C14" t="n">
         <v>125</v>
       </c>
       <c r="D14" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="E14" t="n">
         <v>3</v>
@@ -1875,7 +1878,7 @@
         <v>8</v>
       </c>
       <c r="G14" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
     </row>
     <row r="15">
@@ -1883,13 +1886,13 @@
         <v>77</v>
       </c>
       <c r="B15" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="C15" t="n">
         <v>150</v>
       </c>
       <c r="D15" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="E15" t="n">
         <v>1</v>
@@ -1898,7 +1901,7 @@
         <v>2</v>
       </c>
       <c r="G15" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
     </row>
     <row r="16">
@@ -1906,13 +1909,13 @@
         <v>80</v>
       </c>
       <c r="B16" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="C16" t="n">
         <v>154</v>
       </c>
       <c r="D16" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
@@ -1921,21 +1924,21 @@
         <v>1</v>
       </c>
       <c r="G16" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B17" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="C17" t="n">
         <v>119</v>
       </c>
       <c r="D17" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="E17" t="n">
         <v>2</v>
@@ -1944,21 +1947,21 @@
         <v>4</v>
       </c>
       <c r="G17" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B18" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="C18" t="n">
         <v>143</v>
       </c>
       <c r="D18" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="E18" t="n">
         <v>1</v>
@@ -1967,7 +1970,7 @@
         <v>2</v>
       </c>
       <c r="G18" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
     </row>
   </sheetData>
@@ -1986,354 +1989,354 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="B1" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="C1" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="D1" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="E1" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="F1" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="G1" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="H1" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="I1" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="J1" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="B2" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="C2" t="n">
         <v>1669351</v>
       </c>
       <c r="D2" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="E2" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="F2" t="n">
         <v>127775</v>
       </c>
       <c r="G2" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="H2" t="n">
         <v>578</v>
       </c>
       <c r="I2" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="J2" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="B3" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="C3" t="n">
         <v>1092540</v>
       </c>
       <c r="D3" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="E3" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="F3" t="n">
         <v>75160</v>
       </c>
       <c r="G3" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="H3" t="n">
         <v>331</v>
       </c>
       <c r="I3" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="J3" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="B4" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="C4" t="n">
         <v>1756293</v>
       </c>
       <c r="D4" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="E4" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="F4" t="n">
         <v>128691</v>
       </c>
       <c r="G4" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="H4" t="n">
         <v>265</v>
       </c>
       <c r="I4" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="J4" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="B5" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="C5" t="n">
         <v>1093700</v>
       </c>
       <c r="D5" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="E5" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="F5" t="n">
         <v>91241</v>
       </c>
       <c r="G5" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="H5" t="n">
         <v>97</v>
       </c>
       <c r="I5" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="J5" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="B6" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="C6" t="n">
         <v>5874719</v>
       </c>
       <c r="D6" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="E6" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="F6" t="n">
         <v>25198</v>
       </c>
       <c r="G6" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="H6" t="n">
         <v>66</v>
       </c>
       <c r="I6" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="J6" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="B7" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="C7" t="n">
         <v>3937192</v>
       </c>
       <c r="D7" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="E7" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="F7" t="n">
         <v>81003</v>
       </c>
       <c r="G7" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="H7" t="n">
         <v>36</v>
       </c>
       <c r="I7" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="J7" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="B8" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="C8" t="n">
         <v>5139162</v>
       </c>
       <c r="D8" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="E8" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="F8" t="n">
         <v>111515</v>
       </c>
       <c r="G8" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="H8" t="n">
         <v>23</v>
       </c>
       <c r="I8" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="J8" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="B9" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="C9" t="n">
         <v>2880821</v>
       </c>
       <c r="D9" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="E9" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="F9" t="n">
         <v>30331</v>
       </c>
       <c r="G9" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="H9" t="n">
         <v>22</v>
       </c>
       <c r="I9" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="J9" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="B10" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="C10" t="n">
         <v>4271276</v>
       </c>
       <c r="D10" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="E10" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="F10" t="n">
         <v>14643</v>
       </c>
       <c r="G10" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="H10" t="n">
         <v>11</v>
       </c>
       <c r="I10" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="J10" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="B11" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="C11" t="n">
         <v>3743732</v>
       </c>
       <c r="D11" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="E11" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="F11" t="n">
         <v>18049</v>
       </c>
       <c r="G11" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="H11" t="n">
         <v>3</v>
       </c>
       <c r="I11" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="J11" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
     </row>
   </sheetData>
@@ -2602,10 +2605,10 @@
         <v>178181</v>
       </c>
       <c r="C9" t="s">
+        <v>50</v>
+      </c>
+      <c r="D9" t="s">
         <v>62</v>
-      </c>
-      <c r="D9" t="s">
-        <v>63</v>
       </c>
       <c r="E9" t="n">
         <v>10</v>
@@ -2616,13 +2619,13 @@
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B10" t="n">
         <v>44745</v>
       </c>
       <c r="C10" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="D10" t="s">
         <v>65</v>
@@ -2685,7 +2688,7 @@
         <v>73</v>
       </c>
       <c r="D13" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="E13" t="n">
         <v>8</v>
@@ -2745,7 +2748,7 @@
         <v>81</v>
       </c>
       <c r="D16" t="s">
-        <v>60</v>
+        <v>82</v>
       </c>
       <c r="E16" t="n">
         <v>2</v>
@@ -2756,16 +2759,16 @@
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B17" t="n">
         <v>82768</v>
       </c>
       <c r="C17" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="D17" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="E17" t="n">
         <v>5</v>
@@ -2776,16 +2779,16 @@
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B18" t="n">
         <v>40543</v>
       </c>
       <c r="C18" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="D18" t="s">
-        <v>60</v>
+        <v>48</v>
       </c>
       <c r="E18" t="n">
         <v>3</v>
@@ -2810,167 +2813,167 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B1" t="s">
         <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="C2" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="B3" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="C3" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="B4" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="C4" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="B5" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="C5" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="B6" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="C6" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="B7" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="C7" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="B8" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="C8" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="B9" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="C9" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="B10" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="C10" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="B11" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="C11" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="B12" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="C12" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="B13" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="C13" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="B14" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="C14" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="B15" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="C15" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
     </row>
   </sheetData>
@@ -2989,13 +2992,13 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="B1" t="s">
         <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="D1" t="s">
         <v>20</v>
@@ -3003,72 +3006,72 @@
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="B2" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="C2" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="D2" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="B3" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="C3" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="D3" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="B4" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="C4" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="D4" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="B5" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="C5" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="D5" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="B6" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="C6" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="D6" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
     </row>
   </sheetData>
@@ -3087,13 +3090,13 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="B1" t="s">
         <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="D1" t="s">
         <v>20</v>
@@ -3101,21 +3104,21 @@
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="B2" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="C2" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="D2" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="B3"/>
       <c r="C3"/>
@@ -3126,83 +3129,83 @@
         <v>4</v>
       </c>
       <c r="B4" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="C4" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="D4" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="B5" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="C5" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="D5" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="B6" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="C6" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="D6" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="B7" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="C7" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="D7" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="B8" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="C8" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="D8" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
+        <v>164</v>
+      </c>
+      <c r="B9" t="s">
+        <v>148</v>
+      </c>
+      <c r="C9" t="s">
         <v>163</v>
       </c>
-      <c r="B9" t="s">
-        <v>147</v>
-      </c>
-      <c r="C9" t="s">
-        <v>162</v>
-      </c>
       <c r="D9" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
     </row>
   </sheetData>
@@ -3221,13 +3224,13 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="B1" t="s">
         <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="D1" t="s">
         <v>20</v>
@@ -3235,7 +3238,7 @@
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="B2"/>
       <c r="C2"/>
@@ -3243,7 +3246,7 @@
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="B3" t="n">
         <v>745</v>
@@ -3252,12 +3255,12 @@
         <v>848</v>
       </c>
       <c r="D3" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="B4" t="n">
         <v>23</v>
@@ -3266,12 +3269,12 @@
         <v>14</v>
       </c>
       <c r="D4" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="B5" t="n">
         <v>1</v>
@@ -3283,7 +3286,7 @@
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="B6"/>
       <c r="C6"/>
@@ -3291,7 +3294,7 @@
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="B7" t="n">
         <v>630</v>
@@ -3300,12 +3303,12 @@
         <v>754</v>
       </c>
       <c r="D7" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="B8" t="n">
         <v>305</v>
@@ -3314,12 +3317,12 @@
         <v>480</v>
       </c>
       <c r="D8" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="B9" t="n">
         <v>105</v>
@@ -3328,12 +3331,12 @@
         <v>138</v>
       </c>
       <c r="D9" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="B10" t="n">
         <v>56</v>
@@ -3342,7 +3345,7 @@
         <v>102</v>
       </c>
       <c r="D10" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
     </row>
   </sheetData>
@@ -3361,13 +3364,13 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="B1" t="s">
         <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="D1" t="s">
         <v>20</v>
@@ -3378,97 +3381,97 @@
         <v>6</v>
       </c>
       <c r="B2" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="C2" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="D2" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="B3" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="C3" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="D3" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="B4" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="C4" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="D4" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="B5" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="C5" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="D5" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="B6" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="C6" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="D6" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="B7" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="C7" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="D7" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="B8" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="C8" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="D8" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
     </row>
   </sheetData>
@@ -3487,13 +3490,13 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="B1" t="s">
         <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="D1" t="s">
         <v>20</v>
@@ -3501,44 +3504,44 @@
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="B2" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="C2" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="D2" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="B3" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="C3" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="D3" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="B4" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="C4" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="D4" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
     </row>
   </sheetData>
